--- a/03_DESIGN/MK3S/Project_Plan.xlsx
+++ b/03_DESIGN/MK3S/Project_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Personal\3D_Printing\03_DESIGN\MK3S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FB808A-F982-4BE1-A094-1E88EF13D085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C133BA5A-11AA-4CD3-8CCF-5282C22796AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40200" yWindow="-3510" windowWidth="31170" windowHeight="17550" activeTab="1" xr2:uid="{85C8D663-0877-461D-93B2-81B96EF27F56}"/>
+    <workbookView xWindow="53190" yWindow="-2520" windowWidth="18045" windowHeight="16800" activeTab="1" xr2:uid="{85C8D663-0877-461D-93B2-81B96EF27F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>TPU flex filament</t>
   </si>
@@ -88,19 +88,7 @@
     <t>https://www.prusa3d.com/product/nozzle-v6-0-4-mm/</t>
   </si>
   <si>
-    <t>https://www.prusa3d.com/product/assembled-hotend-mk3/</t>
-  </si>
-  <si>
-    <t>https://www.prusa3d.com/product/assembled-hotend-mk3s-2/</t>
-  </si>
-  <si>
-    <t>Assembled Hotend MK3</t>
-  </si>
-  <si>
     <t>Assembled Hotend MK3S</t>
-  </si>
-  <si>
-    <t>Assembled Hotend MK3S+</t>
   </si>
   <si>
     <t>https://www.prusa3d.com/product/digital-calipers-kinex-150mm/</t>
@@ -145,9 +133,6 @@
     <t>To Print</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>https://www.prusa3d.com/product/prusament-asa-jet-black-850g/</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>Fan Shroud</t>
   </si>
   <si>
-    <t>Left filament holder</t>
-  </si>
-  <si>
     <t>Cable clips</t>
   </si>
   <si>
@@ -199,9 +181,6 @@
     <t>Print PETG parts</t>
   </si>
   <si>
-    <t>original model, or improved?</t>
-  </si>
-  <si>
     <t>Filament guide</t>
   </si>
   <si>
@@ -218,6 +197,42 @@
   </si>
   <si>
     <t>Extruder cable clip</t>
+  </si>
+  <si>
+    <t>Left spool holder</t>
+  </si>
+  <si>
+    <t>Fan intake cover</t>
+  </si>
+  <si>
+    <t>X-axis strain relief</t>
+  </si>
+  <si>
+    <t>Motor visualizer (arrow)</t>
+  </si>
+  <si>
+    <t>clear PETG filament</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Shipping DHL Express</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>remix - allows for silicone sock</t>
+  </si>
+  <si>
+    <t>wider intake, should print one for me, too</t>
   </si>
 </sst>
 </file>
@@ -261,18 +276,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -338,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,65 +356,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,15 +768,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -778,552 +790,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4538C1C3-8C45-442F-8A1B-E3C93FB92094}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="5.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="49" style="11" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="49" style="9" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="6"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
+      <c r="A1" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>C3*F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>38</v>
+      <c r="H3" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13">
         <v>47.9</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f>C4*F4</f>
         <v>47.9</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>9.99</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f>C5*F5</f>
         <v>19.98</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="17"/>
-      <c r="G6" s="18">
-        <f>SUM(G3:G5)</f>
-        <v>67.88</v>
-      </c>
+      <c r="E6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="17"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="17"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="24">
         <v>5.89</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f>C9*F9</f>
         <v>5.89</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="21">
+      <c r="E10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="24">
         <v>79.989999999999995</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f>C10*F10</f>
         <v>79.989999999999995</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24">
+        <v>4.63</v>
+      </c>
+      <c r="G11" s="13">
+        <f>C11*F11</f>
+        <v>4.63</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1.69</v>
+      </c>
+      <c r="G12" s="13">
+        <f>C12*F12</f>
+        <v>1.69</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9.99</v>
+      </c>
+      <c r="G13" s="13">
+        <f>C13*F13</f>
+        <v>9.99</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="G14" s="13">
+        <f>C14*F14</f>
+        <v>1.91</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="G15" s="13">
+        <f>C15*F15</f>
+        <v>1.99</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="16">
+        <f>SUM(G9:G15)</f>
+        <v>106.08999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6.48</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1.52</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="19">
+        <v>16.25</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1.49</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.33</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="16">
+        <f>SUM(G19:G31)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="19">
+        <v>24.69</v>
+      </c>
+      <c r="G35" s="13">
+        <f>C35*F35</f>
+        <v>12.345000000000001</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="16">
+        <f>SUM(G35:G35)</f>
+        <v>12.345000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G38" s="8">
+        <f>G16+G32+G36</f>
+        <v>121.43499999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <f>C42*F42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="21" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <f>C43*F43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="15">
-        <v>4.63</v>
-      </c>
-      <c r="G13" s="15">
-        <f>C13*F13</f>
-        <v>4.63</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1.69</v>
-      </c>
-      <c r="G14" s="15">
-        <f>C14*F14</f>
-        <v>1.69</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>9.99</v>
-      </c>
-      <c r="G15" s="15">
-        <f>C15*F15</f>
-        <v>9.99</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1.91</v>
-      </c>
-      <c r="G16" s="15">
-        <f>C16*F16</f>
-        <v>1.91</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1.99</v>
-      </c>
-      <c r="G17" s="15">
-        <f>C17*F17</f>
-        <v>1.99</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="18">
-        <f>SUM(G9:G17)</f>
-        <v>106.08999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="D44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1.25</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="22">
-        <v>6.48</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.59</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="22">
-        <v>1.52</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="G27" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="18">
-        <f>SUM(G21:G31)</f>
-        <v>1.2700000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="13">
         <v>0</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="15">
+      <c r="G44" s="13">
+        <f>C44*F44</f>
         <v>0</v>
       </c>
-      <c r="G39" s="15">
-        <f>C39*F39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="13">
-        <v>2</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
-        <f>C40*F40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>39</v>
+      <c r="H44" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{DF098D1A-CA90-4074-BEA4-EEB455104493}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{1D8290FD-8183-425F-93BD-958F367C920D}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{2FB3FA5D-A1DC-47E1-9D31-632DEAB6E6A3}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{BA5308CF-7391-4FBC-B708-361BCC1185E3}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{38C03562-DC8D-4991-ACE1-B2117AC7D3B6}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{291BBF32-0696-4E30-BB03-39B9093889E1}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{47250384-E48E-4275-BC17-ABDC987F5163}"/>
-    <hyperlink ref="E4" r:id="rId8" xr:uid="{0E1B5AF4-C666-4EF5-AD61-626FACAA7CB0}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{E3A5850B-E2D7-4AD5-A28E-678C37900219}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{EAFD0320-57C5-40FF-92A0-974AB5BCAA62}"/>
-    <hyperlink ref="E3" r:id="rId11" xr:uid="{E7C86C7C-73E5-4EE6-938E-A72649340713}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{DF098D1A-CA90-4074-BEA4-EEB455104493}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{1D8290FD-8183-425F-93BD-958F367C920D}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{2FB3FA5D-A1DC-47E1-9D31-632DEAB6E6A3}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{38C03562-DC8D-4991-ACE1-B2117AC7D3B6}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{291BBF32-0696-4E30-BB03-39B9093889E1}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{0E1B5AF4-C666-4EF5-AD61-626FACAA7CB0}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{E3A5850B-E2D7-4AD5-A28E-678C37900219}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{EAFD0320-57C5-40FF-92A0-974AB5BCAA62}"/>
+    <hyperlink ref="E3" r:id="rId9" xr:uid="{E7C86C7C-73E5-4EE6-938E-A72649340713}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{5E671D5A-254E-477D-89CA-A5076E1A976B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1348,22 +1479,22 @@
   <sheetData>
     <row r="2" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>30</v>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
